--- a/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_3_resultat_fts_202111.xlsx
+++ b/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_3_resultat_fts_202111.xlsx
@@ -1159,7 +1159,7 @@
     <t>(Nov 2021) Pre-TAS FL - 3. Resultados FTS V2</t>
   </si>
   <si>
-    <t>mz_lf_pretas_3_resultat_fts_202111</t>
+    <t>mz_lf_pretas_3_resultat_fts_202111_2</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -1170,8 +1170,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1232,24 +1232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1265,6 +1249,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1279,20 +1301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1301,16 +1309,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1324,29 +1331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,11 +1345,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1389,25 +1389,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,25 +1419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,19 +1437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,19 +1455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,31 +1473,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,25 +1539,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,20 +1628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,6 +1654,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,17 +1697,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,142 +1728,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10335,7 +10335,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
